--- a/src/Doc/冲刺需求列表.xlsx
+++ b/src/Doc/冲刺需求列表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" tabRatio="500"/>
+    <workbookView windowWidth="28700" windowHeight="14970" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>需求列表</t>
   </si>
@@ -40,12 +40,45 @@
     <t>资讯有作者，作者和用户关联起来，后台添加资讯的时候，指定一个系统内的用户</t>
   </si>
   <si>
-    <t>新的大咖页面</t>
+    <t>新的大咖页面--index</t>
+  </si>
+  <si>
+    <t>去沟通链接</t>
+  </si>
+  <si>
+    <t>大咖详情页</t>
+  </si>
+  <si>
+    <t>小菜</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>递名片功能</t>
   </si>
   <si>
+    <t>前端页面做了，后台按名片夹分类还没做</t>
+  </si>
+  <si>
+    <t>名片夹后台</t>
+  </si>
+  <si>
+    <t>后台统计---1.列出发名片、收名片的倒叙   2，查询个人，列出他的收发名片</t>
+  </si>
+  <si>
+    <t>后续给出按天的收发</t>
+  </si>
+  <si>
+    <t>话题详情</t>
+  </si>
+  <si>
+    <t>话题新增、编辑</t>
+  </si>
+  <si>
+    <t>文鹏</t>
+  </si>
+  <si>
     <t>强化专家页面的个人主页功能</t>
   </si>
   <si>
@@ -79,9 +112,6 @@
     <t>用户缩略图+默认图</t>
   </si>
   <si>
-    <t>文鹏</t>
-  </si>
-  <si>
     <t xml:space="preserve">上传接口  </t>
   </si>
   <si>
@@ -94,6 +124,9 @@
     <t>差app 的持久化登录</t>
   </si>
   <si>
+    <t>阅读统计，RD设计</t>
+  </si>
+  <si>
     <t>个人中心杂事功能</t>
   </si>
   <si>
@@ -103,29 +136,29 @@
     <t>扫码签到</t>
   </si>
   <si>
+    <t>注意登录和是否在本次报名活动中（剩下生成二维码）</t>
+  </si>
+  <si>
     <t>项目管理（需要后台功能）</t>
   </si>
   <si>
     <t>只需要给出后台，可以延后</t>
   </si>
   <si>
-    <t>前端页面做了，后台按名片夹分类还没做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读统计，RD设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意登录和是否在本次报名活动中（剩下生成二维码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>我的活动  两个列表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,21 +167,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,18 +520,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -429,17 +1082,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="5" max="5" width="52.375" customWidth="1"/>
+    <col min="5" max="5" width="69.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -456,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -488,157 +1142,150 @@
       <c r="D4" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -646,23 +1293,90 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>30</v>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/Doc/冲刺需求列表.xlsx
+++ b/src/Doc/冲刺需求列表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="14970" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14970" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>需求列表</t>
   </si>
@@ -146,19 +146,17 @@
   </si>
   <si>
     <t>我的活动  两个列表</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,352 +165,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -520,307 +187,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1082,21 +460,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="5" max="5" width="69.6153846153846" customWidth="1"/>
+    <col min="5" max="5" width="69.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1140,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1154,10 +531,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +583,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1236,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1263,7 +640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1305,7 +682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1367,16 +744,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Doc/冲刺需求列表.xlsx
+++ b/src/Doc/冲刺需求列表.xlsx
@@ -136,9 +136,6 @@
     <t>扫码签到</t>
   </si>
   <si>
-    <t>注意登录和是否在本次报名活动中（剩下生成二维码）</t>
-  </si>
-  <si>
     <t>项目管理（需要后台功能）</t>
   </si>
   <si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意登录和是否在本次报名活动中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +465,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -531,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -545,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -558,7 +559,9 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
@@ -721,15 +724,15 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>23</v>
@@ -741,12 +744,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>

--- a/src/Doc/冲刺需求列表.xlsx
+++ b/src/Doc/冲刺需求列表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14970" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>需求列表</t>
   </si>
@@ -121,7 +121,7 @@
     <t>登录完善</t>
   </si>
   <si>
-    <t>差app 的持久化登录</t>
+    <t xml:space="preserve"> 微信端的静默登录可能有时候会出现问题，目前还未能重现</t>
   </si>
   <si>
     <t>阅读统计，RD设计</t>
@@ -136,6 +136,9 @@
     <t>扫码签到</t>
   </si>
   <si>
+    <t>注意登录和是否在本次报名活动中</t>
+  </si>
+  <si>
     <t>项目管理（需要后台功能）</t>
   </si>
   <si>
@@ -143,21 +146,19 @@
   </si>
   <si>
     <t>我的活动  两个列表</t>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意登录和是否在本次报名活动中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,21 +167,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,18 +520,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -461,20 +1082,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="5" max="5" width="69.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -496,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -510,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -524,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -532,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -569,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -577,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -586,7 +1208,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -597,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -608,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -616,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -624,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -632,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -643,7 +1265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -654,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -679,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -727,12 +1349,12 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>23</v>
@@ -744,12 +1366,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -759,7 +1381,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/Doc/冲刺需求列表.xlsx
+++ b/src/Doc/冲刺需求列表.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -557,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>

--- a/src/Doc/冲刺需求列表.xlsx
+++ b/src/Doc/冲刺需求列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>需求列表</t>
   </si>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -489,6 +489,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -693,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
